--- a/biology/Botanique/Forêt_de_Gougenheim/Forêt_de_Gougenheim.xlsx
+++ b/biology/Botanique/Forêt_de_Gougenheim/Forêt_de_Gougenheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gougenheim</t>
+          <t>Forêt_de_Gougenheim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Gougenheim est une forêt privée française située sur le territoire de la commune de Gougenheim en Alsace.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gougenheim</t>
+          <t>Forêt_de_Gougenheim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Gougenheim est une chênaie-frênaie située dans l’Arrière-Kochersberg. C'est la plus vaste forêt du Kochersberg (18,7 ha)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Gougenheim est une chênaie-frênaie située dans l’Arrière-Kochersberg. C'est la plus vaste forêt du Kochersberg (18,7 ha).
 Elle est bordée au nord-ouest par le Rohrbach, affluent de la Zorn, et au sud-ouest par le Dorfraben, affluent du Rohrbach.
 			Chemin rural du Kreuzweg
 			Dorfgraben en forêt de Gougenheim
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gougenheim</t>
+          <t>Forêt_de_Gougenheim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des arbres et plantes poussant en forêt de Gougenheim[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des arbres et plantes poussant en forêt de Gougenheim :
 Ajuga reptans L.
 Alliaria petiolata (M. Bieb.) Cavara &amp; Grande
 Allium ursinum L.
@@ -602,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gougenheim</t>
+          <t>Forêt_de_Gougenheim</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -620,9 +636,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Gougenheim est la seule forêt privée du Kochersberg. Elle est divisée en quatre parties, chaque partie étant divisée en 61 parcelles[2] : cette division s'est faite à la Révolution et chacun des 61 foyers du Gougenheim de l'époque s'est vu attribuer un lot dans chacune des 4 sections[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Gougenheim est la seule forêt privée du Kochersberg. Elle est divisée en quatre parties, chaque partie étant divisée en 61 parcelles : cette division s'est faite à la Révolution et chacun des 61 foyers du Gougenheim de l'époque s'est vu attribuer un lot dans chacune des 4 sections.
 Elle abrite les ruines d'un ancien moulin détruit par un incendie à la fin du XIXe siècle.
 </t>
         </is>
@@ -634,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Gougenheim</t>
+          <t>Forêt_de_Gougenheim</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -652,7 +670,9 @@
           <t>Sentier sylvicole</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sentier pédestre sylvicole (2,2 km) permet de découvrir la forêt de Gougenheim. Son tracé part du village et mène sur les rives du Dorfgraben puis du Rohrbach, le long de la station d'épuration du Sivom du Rohrbach, et passe devant l'emplacement de l'ancien moulin.
 			Tracé du sentier sylvicole
